--- a/libraries/touchgfx_lib/TouchGFX/assets/texts/texts.xlsx
+++ b/libraries/touchgfx_lib/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="83">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -246,6 +246,24 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   36.5</t>
   </si>
 </sst>
 </file>
@@ -1735,7 +1753,7 @@
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
@@ -1797,39 +1815,55 @@
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
         <v>47</v>
       </c>
       <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/libraries/touchgfx_lib/TouchGFX/assets/texts/texts.xlsx
+++ b/libraries/touchgfx_lib/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="83">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -1776,12 +1776,12 @@
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -1793,29 +1793,29 @@
         <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
@@ -1830,40 +1830,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>74</v>
-      </c>
-    </row>
+    <row r="11"/>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/libraries/touchgfx_lib/TouchGFX/assets/texts/texts.xlsx
+++ b/libraries/touchgfx_lib/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="88">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -264,6 +264,21 @@
   </si>
   <si>
     <t xml:space="preserve">   36.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">步数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
   </si>
 </sst>
 </file>
@@ -1830,8 +1845,57 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12"/>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/libraries/touchgfx_lib/TouchGFX/assets/texts/texts.xlsx
+++ b/libraries/touchgfx_lib/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="89">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255</t>
   </si>
 </sst>
 </file>
@@ -1870,7 +1873,7 @@
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>47</v>
@@ -1893,7 +1896,7 @@
         <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/touchgfx_lib/TouchGFX/assets/texts/texts.xlsx
+++ b/libraries/touchgfx_lib/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="93">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t xml:space="preserve">255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">距离</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
   </si>
 </sst>
 </file>
@@ -1899,6 +1911,57 @@
         <v>88</v>
       </c>
     </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
